--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1840022.093502289</v>
+        <v>1785995.405782339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4356860.590084111</v>
+        <v>4356860.590084109</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6099538.01074454</v>
+        <v>6099538.010744542</v>
       </c>
     </row>
     <row r="11">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>90.40311736807182</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F23" t="n">
-        <v>31.83779371908468</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.56532364898706</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="Y23" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="V23" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.22938935770472</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>81.40470469615306</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>56.14127127247608</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>66.34128616323827</v>
       </c>
       <c r="F24" t="n">
-        <v>6.319688149886493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.854039860480512</v>
+        <v>8.854039860480455</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>82.9368321061322</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75.94302680646521</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>76.68718506629614</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>85.98959708500681</v>
       </c>
       <c r="S25" t="n">
-        <v>40.41041386051446</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.6375083652041</v>
+        <v>4.413520283065011</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C26" t="n">
-        <v>90.40311736807173</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="G26" t="n">
-        <v>102.6375083652041</v>
+        <v>92.42197337069676</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,73 +2633,73 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>41.96259549070987</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>88.09305158464011</v>
+      </c>
+      <c r="H27" t="n">
+        <v>62.98497865792594</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>90.40311736807173</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>44.10871453810226</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>36.91157767312387</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>102.6375083652041</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>9.3828251568457</v>
+      </c>
+      <c r="W28" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="U28" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="V28" t="n">
-        <v>90.40311736807173</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,23 +2797,23 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>92.42197337069676</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="E29" t="n">
-        <v>90.40311736807173</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>95.81874681481337</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>62.98497865792594</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>27.41813871014586</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>97.22187891846247</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>15.84975107768902</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>96.17058244436073</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,52 +2970,52 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>90.40311736807178</v>
+      </c>
+      <c r="S31" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="J31" t="n">
-        <v>44.10871453810226</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>36.91157767312387</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X31" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>90.40311736807173</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>102.6375083652041</v>
+        <v>33.89317954359486</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>73.17400353319456</v>
+        <v>4.255144460458498</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D33" t="n">
-        <v>43.64759678348454</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>64.28590033872817</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>51.7100322767111</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>43.98433704653786</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T34" t="n">
-        <v>90.40311736807178</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U34" t="n">
+        <v>6.468906107575068</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="V34" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="W34" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,61 +3265,61 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>90.4031173680718</v>
+      </c>
+      <c r="H35" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C35" t="n">
+      <c r="I35" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>33.89317954359479</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>56.50993782447691</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>11.05379849642883</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V36" t="n">
         <v>102.6375083652041</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>94.81504274180917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G37" t="n">
         <v>74.63179924178598</v>
       </c>
       <c r="H37" t="n">
-        <v>15.77131812628574</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>66.77504713233239</v>
       </c>
       <c r="V37" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,70 +3502,70 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>33.89317954359488</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>56.50993782447691</v>
+      </c>
+      <c r="S38" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C38" t="n">
+      <c r="T38" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D38" t="n">
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>90.40311736807178</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,16 +3587,16 @@
         <v>79.34931887164296</v>
       </c>
       <c r="D39" t="n">
-        <v>49.40540652290468</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E39" t="n">
         <v>64.28590033872817</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>47.17403835763471</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,11 +3638,11 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86.47280006526452</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>53.49304313811491</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E40" t="n">
-        <v>53.0747825298964</v>
+        <v>11.09066568369191</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,29 +3739,29 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>90.40311736807182</v>
+      </c>
+      <c r="I41" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>90.40311736807178</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>95.81874681481335</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>62.98497865792594</v>
       </c>
       <c r="I42" t="n">
-        <v>40.14616727284456</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.25695009522718</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>34.23690026053661</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="V42" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="W42" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.10871453810226</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.29440282996949</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>102.6375083652041</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>90.40311736807182</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>90.40311736807173</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>102.6375083652041</v>
+        <v>90.4031173680718</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>88.09305158464011</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>13.89403830171863</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>40.14616727284456</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>50.90736857407261</v>
       </c>
       <c r="S45" t="n">
-        <v>90.40311736807178</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="U45" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,31 +4134,31 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>97.18349706799864</v>
+      </c>
+      <c r="F46" t="n">
+        <v>96.17058244436072</v>
+      </c>
+      <c r="G46" t="n">
+        <v>102.3240545861207</v>
+      </c>
+      <c r="H46" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C46" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="D46" t="n">
-        <v>46.29440282996945</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.10871453810228</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.37038826425136</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C23" t="n">
-        <v>40.37038826425136</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="D23" t="n">
-        <v>40.37038826425136</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E23" t="n">
-        <v>40.37038826425136</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K23" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L23" t="n">
-        <v>207.3277668977123</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M23" t="n">
+        <v>211.4332672323205</v>
+      </c>
+      <c r="N23" t="n">
         <v>308.9389001792644</v>
       </c>
-      <c r="N23" t="n">
-        <v>410.5500334608164</v>
-      </c>
       <c r="O23" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P23" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q23" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R23" t="n">
-        <v>351.393140886082</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S23" t="n">
-        <v>247.7188900121384</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T23" t="n">
-        <v>247.7188900121384</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U23" t="n">
-        <v>144.0446391381949</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="V23" t="n">
-        <v>40.37038826425136</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="W23" t="n">
-        <v>40.37038826425136</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="X23" t="n">
-        <v>40.37038826425136</v>
+        <v>306.875782586873</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.37038826425136</v>
+        <v>203.2015317129294</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.59452405294006</v>
+        <v>214.157730095345</v>
       </c>
       <c r="C24" t="n">
-        <v>14.59452405294006</v>
+        <v>131.9307556547864</v>
       </c>
       <c r="D24" t="n">
-        <v>14.59452405294006</v>
+        <v>75.22240083410347</v>
       </c>
       <c r="E24" t="n">
-        <v>14.59452405294006</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L24" t="n">
+        <v>8.211000669216331</v>
+      </c>
+      <c r="M24" t="n">
         <v>109.8221339507684</v>
       </c>
-      <c r="M24" t="n">
-        <v>211.4332672323204</v>
-      </c>
       <c r="N24" t="n">
-        <v>308.9389001792644</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="O24" t="n">
-        <v>410.5500334608164</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="P24" t="n">
-        <v>410.5500334608164</v>
+        <v>341.1554749474872</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R24" t="n">
-        <v>401.6065588542704</v>
+        <v>401.6065588542706</v>
       </c>
       <c r="S24" t="n">
-        <v>401.6065588542704</v>
+        <v>401.6065588542706</v>
       </c>
       <c r="T24" t="n">
-        <v>297.9323079803269</v>
+        <v>401.6065588542706</v>
       </c>
       <c r="U24" t="n">
-        <v>297.9323079803269</v>
+        <v>297.932307980327</v>
       </c>
       <c r="V24" t="n">
-        <v>194.2580571063833</v>
+        <v>297.932307980327</v>
       </c>
       <c r="W24" t="n">
-        <v>194.2580571063833</v>
+        <v>214.157730095345</v>
       </c>
       <c r="X24" t="n">
-        <v>194.2580571063833</v>
+        <v>214.157730095345</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.58380623243978</v>
+        <v>214.157730095345</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.3829318538238</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="C25" t="n">
-        <v>85.67280376648516</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D25" t="n">
-        <v>85.67280376648516</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E25" t="n">
-        <v>85.67280376648516</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F25" t="n">
-        <v>85.67280376648516</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K25" t="n">
-        <v>76.55496011083331</v>
+        <v>76.55496011083336</v>
       </c>
       <c r="L25" t="n">
-        <v>103.8690851185463</v>
+        <v>133.2731477800567</v>
       </c>
       <c r="M25" t="n">
-        <v>205.4802184000984</v>
+        <v>172.4611859722789</v>
       </c>
       <c r="N25" t="n">
-        <v>293.423893274368</v>
+        <v>216.1520366277152</v>
       </c>
       <c r="O25" t="n">
         <v>317.7631699092673</v>
       </c>
       <c r="P25" t="n">
-        <v>405.4596999307528</v>
+        <v>405.4596999307529</v>
       </c>
       <c r="Q25" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R25" t="n">
-        <v>410.5500334608164</v>
+        <v>323.6918545870723</v>
       </c>
       <c r="S25" t="n">
-        <v>369.7314336017109</v>
+        <v>220.0176037131287</v>
       </c>
       <c r="T25" t="n">
-        <v>369.7314336017109</v>
+        <v>220.0176037131287</v>
       </c>
       <c r="U25" t="n">
-        <v>369.7314336017109</v>
+        <v>220.0176037131287</v>
       </c>
       <c r="V25" t="n">
-        <v>369.7314336017109</v>
+        <v>116.3433528391852</v>
       </c>
       <c r="W25" t="n">
-        <v>369.7314336017109</v>
+        <v>116.3433528391852</v>
       </c>
       <c r="X25" t="n">
-        <v>266.0571827277673</v>
+        <v>12.66910196524159</v>
       </c>
       <c r="Y25" t="n">
-        <v>162.3829318538238</v>
+        <v>8.211000669216331</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>203.2015317129293</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="C26" t="n">
-        <v>111.8852515431599</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="D26" t="n">
-        <v>111.8852515431599</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="E26" t="n">
-        <v>111.8852515431599</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="F26" t="n">
-        <v>111.8852515431599</v>
+        <v>101.5665293264858</v>
       </c>
       <c r="G26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L26" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="M26" t="n">
-        <v>211.4332672323204</v>
+        <v>117.6677116056614</v>
       </c>
       <c r="N26" t="n">
-        <v>308.9389001792644</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O26" t="n">
-        <v>410.5500334608164</v>
+        <v>320.8899781687655</v>
       </c>
       <c r="P26" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q26" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R26" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="S26" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="T26" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="U26" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="V26" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="W26" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="X26" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8757825868728</v>
+        <v>308.9150310743729</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.52728083898576</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="C27" t="n">
-        <v>99.52728083898576</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="D27" t="n">
-        <v>99.52728083898576</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="E27" t="n">
-        <v>8.211000669216329</v>
+        <v>160.8150716213033</v>
       </c>
       <c r="F27" t="n">
-        <v>8.211000669216329</v>
+        <v>160.8150716213033</v>
       </c>
       <c r="G27" t="n">
-        <v>8.211000669216329</v>
+        <v>71.83219123277789</v>
       </c>
       <c r="H27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="M27" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="N27" t="n">
-        <v>137.933208384383</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="O27" t="n">
-        <v>239.5443416659351</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="P27" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R27" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S27" t="n">
-        <v>410.5500334608164</v>
+        <v>306.875782586873</v>
       </c>
       <c r="T27" t="n">
-        <v>306.8757825868728</v>
+        <v>306.875782586873</v>
       </c>
       <c r="U27" t="n">
-        <v>306.8757825868728</v>
+        <v>306.875782586873</v>
       </c>
       <c r="V27" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="W27" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="X27" t="n">
-        <v>203.2015317129293</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.2015317129293</v>
+        <v>203.2015317129294</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="C28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="D28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="E28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="F28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="G28" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841053</v>
       </c>
       <c r="H28" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841053</v>
       </c>
       <c r="I28" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841053</v>
       </c>
       <c r="J28" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K28" t="n">
-        <v>34.92216468437711</v>
+        <v>34.92216468437721</v>
       </c>
       <c r="L28" t="n">
-        <v>110.9942506148749</v>
+        <v>110.994250614875</v>
       </c>
       <c r="M28" t="n">
-        <v>198.9402497298818</v>
+        <v>198.940249729882</v>
       </c>
       <c r="N28" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081031</v>
       </c>
       <c r="O28" t="n">
-        <v>364.486298865787</v>
+        <v>364.4862988657871</v>
       </c>
       <c r="P28" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q28" t="n">
-        <v>410.5500334608164</v>
+        <v>373.2656115687722</v>
       </c>
       <c r="R28" t="n">
-        <v>410.5500334608164</v>
+        <v>373.2656115687722</v>
       </c>
       <c r="S28" t="n">
-        <v>306.8757825868728</v>
+        <v>269.5913606948287</v>
       </c>
       <c r="T28" t="n">
-        <v>203.2015317129293</v>
+        <v>269.5913606948287</v>
       </c>
       <c r="U28" t="n">
-        <v>99.52728083898576</v>
+        <v>269.5913606948287</v>
       </c>
       <c r="V28" t="n">
-        <v>8.211000669216329</v>
+        <v>260.1137595262977</v>
       </c>
       <c r="W28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="X28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.211000669216329</v>
+        <v>156.4395086523541</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>203.2015317129293</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="C29" t="n">
-        <v>203.2015317129293</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="D29" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E29" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F29" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G29" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H29" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I29" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J29" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K29" t="n">
+        <v>8.211000669216331</v>
+      </c>
+      <c r="L29" t="n">
         <v>109.8221339507684</v>
       </c>
-      <c r="L29" t="n">
-        <v>211.4332672323204</v>
-      </c>
       <c r="M29" t="n">
-        <v>313.0444005138725</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="N29" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="O29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R29" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="S29" t="n">
-        <v>410.5500334608164</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="T29" t="n">
-        <v>410.5500334608164</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="U29" t="n">
-        <v>306.8757825868728</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="V29" t="n">
-        <v>306.8757825868728</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="W29" t="n">
-        <v>203.2015317129293</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="X29" t="n">
-        <v>203.2015317129293</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="Y29" t="n">
-        <v>203.2015317129293</v>
+        <v>205.2407802004294</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.9976136134723</v>
+        <v>71.83219123277789</v>
       </c>
       <c r="C30" t="n">
-        <v>104.9976136134723</v>
+        <v>71.83219123277789</v>
       </c>
       <c r="D30" t="n">
-        <v>104.9976136134723</v>
+        <v>71.83219123277789</v>
       </c>
       <c r="E30" t="n">
-        <v>104.9976136134723</v>
+        <v>71.83219123277789</v>
       </c>
       <c r="F30" t="n">
-        <v>8.211000669216329</v>
+        <v>71.83219123277789</v>
       </c>
       <c r="G30" t="n">
-        <v>8.211000669216329</v>
+        <v>71.83219123277789</v>
       </c>
       <c r="H30" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I30" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J30" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K30" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L30" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M30" t="n">
-        <v>211.4332672323204</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="N30" t="n">
-        <v>313.0444005138725</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="O30" t="n">
-        <v>410.5500334608164</v>
+        <v>341.1554749474872</v>
       </c>
       <c r="P30" t="n">
-        <v>410.5500334608164</v>
+        <v>341.1554749474872</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R30" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S30" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T30" t="n">
-        <v>410.5500334608164</v>
+        <v>306.875782586873</v>
       </c>
       <c r="U30" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="V30" t="n">
-        <v>410.5500334608164</v>
+        <v>175.5064421067215</v>
       </c>
       <c r="W30" t="n">
-        <v>410.5500334608164</v>
+        <v>175.5064421067215</v>
       </c>
       <c r="X30" t="n">
-        <v>312.3461153613594</v>
+        <v>175.5064421067215</v>
       </c>
       <c r="Y30" t="n">
-        <v>208.6718644874158</v>
+        <v>175.5064421067215</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>269.5913606948286</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="C31" t="n">
-        <v>269.5913606948286</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D31" t="n">
-        <v>253.5815111214053</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E31" t="n">
-        <v>253.5815111214053</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F31" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G31" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H31" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I31" t="n">
-        <v>52.76525777841053</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J31" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K31" t="n">
-        <v>34.92216468437709</v>
+        <v>34.92216468437712</v>
       </c>
       <c r="L31" t="n">
         <v>110.9942506148749</v>
@@ -6636,37 +6636,37 @@
         <v>291.389061308103</v>
       </c>
       <c r="O31" t="n">
-        <v>364.486298865787</v>
+        <v>364.4862988657871</v>
       </c>
       <c r="P31" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q31" t="n">
-        <v>373.2656115687721</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R31" t="n">
-        <v>373.2656115687721</v>
+        <v>319.233753291047</v>
       </c>
       <c r="S31" t="n">
-        <v>373.2656115687721</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="T31" t="n">
-        <v>373.2656115687721</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="U31" t="n">
-        <v>373.2656115687721</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="V31" t="n">
-        <v>373.2656115687721</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="W31" t="n">
-        <v>373.2656115687721</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="X31" t="n">
-        <v>269.5913606948286</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="Y31" t="n">
-        <v>269.5913606948286</v>
+        <v>8.211000669216331</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.52728083898576</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="C32" t="n">
-        <v>99.52728083898576</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="D32" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E32" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F32" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G32" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H32" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I32" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J32" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K32" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L32" t="n">
-        <v>211.4332672323204</v>
+        <v>16.05657832410927</v>
       </c>
       <c r="M32" t="n">
-        <v>313.0444005138725</v>
+        <v>117.6677116056614</v>
       </c>
       <c r="N32" t="n">
-        <v>410.5500334608164</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O32" t="n">
-        <v>410.5500334608164</v>
+        <v>320.8899781687655</v>
       </c>
       <c r="P32" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q32" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R32" t="n">
-        <v>410.5500334608164</v>
+        <v>353.4692881835671</v>
       </c>
       <c r="S32" t="n">
-        <v>410.5500334608164</v>
+        <v>249.7950373096235</v>
       </c>
       <c r="T32" t="n">
-        <v>410.5500334608164</v>
+        <v>249.7950373096235</v>
       </c>
       <c r="U32" t="n">
-        <v>410.5500334608164</v>
+        <v>249.7950373096235</v>
       </c>
       <c r="V32" t="n">
-        <v>306.8757825868728</v>
+        <v>249.7950373096235</v>
       </c>
       <c r="W32" t="n">
-        <v>306.8757825868728</v>
+        <v>249.7950373096235</v>
       </c>
       <c r="X32" t="n">
-        <v>203.2015317129293</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="Y32" t="n">
-        <v>99.52728083898576</v>
+        <v>215.5595024171035</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>232.9626477048581</v>
+        <v>88.36182781229004</v>
       </c>
       <c r="C33" t="n">
-        <v>232.9626477048581</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D33" t="n">
-        <v>188.8741661053788</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E33" t="n">
-        <v>123.9389132379766</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F33" t="n">
-        <v>71.70655740291487</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G33" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L33" t="n">
-        <v>36.32207510283096</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="M33" t="n">
-        <v>137.933208384383</v>
+        <v>36.32207510283094</v>
       </c>
       <c r="N33" t="n">
         <v>137.933208384383</v>
@@ -6797,34 +6797,34 @@
         <v>239.5443416659351</v>
       </c>
       <c r="P33" t="n">
-        <v>341.1554749474871</v>
+        <v>341.1554749474872</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R33" t="n">
-        <v>410.5500334608164</v>
+        <v>403.6827061517556</v>
       </c>
       <c r="S33" t="n">
-        <v>410.5500334608164</v>
+        <v>403.6827061517556</v>
       </c>
       <c r="T33" t="n">
-        <v>410.5500334608164</v>
+        <v>403.6827061517556</v>
       </c>
       <c r="U33" t="n">
-        <v>410.5500334608164</v>
+        <v>300.008455277812</v>
       </c>
       <c r="V33" t="n">
-        <v>410.5500334608164</v>
+        <v>196.3342044038685</v>
       </c>
       <c r="W33" t="n">
-        <v>410.5500334608164</v>
+        <v>196.3342044038685</v>
       </c>
       <c r="X33" t="n">
-        <v>410.5500334608164</v>
+        <v>196.3342044038685</v>
       </c>
       <c r="Y33" t="n">
-        <v>306.8757825868728</v>
+        <v>92.65995352992489</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="C34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K34" t="n">
         <v>78.58979207709835</v>
       </c>
       <c r="L34" t="n">
-        <v>144.0522454048496</v>
+        <v>105.9039170848113</v>
       </c>
       <c r="M34" t="n">
-        <v>245.6633786864016</v>
+        <v>145.0919552770335</v>
       </c>
       <c r="N34" t="n">
-        <v>289.3542293418379</v>
+        <v>246.7030885585856</v>
       </c>
       <c r="O34" t="n">
-        <v>313.6935059767372</v>
+        <v>313.6935059767374</v>
       </c>
       <c r="P34" t="n">
-        <v>403.4248679644878</v>
+        <v>403.4248679644879</v>
       </c>
       <c r="Q34" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R34" t="n">
-        <v>410.5500334608164</v>
+        <v>325.7680018845572</v>
       </c>
       <c r="S34" t="n">
-        <v>410.5500334608164</v>
+        <v>222.0937510106136</v>
       </c>
       <c r="T34" t="n">
-        <v>319.2337532910469</v>
+        <v>118.4195001366701</v>
       </c>
       <c r="U34" t="n">
-        <v>215.5595024171034</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="V34" t="n">
         <v>111.8852515431599</v>
       </c>
       <c r="W34" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X34" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>249.7950373096234</v>
+        <v>306.875782586873</v>
       </c>
       <c r="C35" t="n">
-        <v>146.1207864356799</v>
+        <v>306.875782586873</v>
       </c>
       <c r="D35" t="n">
-        <v>42.44653556173633</v>
+        <v>306.875782586873</v>
       </c>
       <c r="E35" t="n">
-        <v>42.44653556173633</v>
+        <v>306.875782586873</v>
       </c>
       <c r="F35" t="n">
-        <v>8.211000669216329</v>
+        <v>306.875782586873</v>
       </c>
       <c r="G35" t="n">
-        <v>8.211000669216329</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="H35" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I35" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J35" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K35" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L35" t="n">
-        <v>211.4332672323204</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M35" t="n">
-        <v>211.4332672323204</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="N35" t="n">
-        <v>219.2788448872134</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="O35" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P35" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q35" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R35" t="n">
-        <v>353.469288183567</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S35" t="n">
-        <v>353.469288183567</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T35" t="n">
-        <v>353.469288183567</v>
+        <v>306.875782586873</v>
       </c>
       <c r="U35" t="n">
-        <v>353.469288183567</v>
+        <v>306.875782586873</v>
       </c>
       <c r="V35" t="n">
-        <v>353.469288183567</v>
+        <v>306.875782586873</v>
       </c>
       <c r="W35" t="n">
-        <v>353.469288183567</v>
+        <v>306.875782586873</v>
       </c>
       <c r="X35" t="n">
-        <v>353.469288183567</v>
+        <v>306.875782586873</v>
       </c>
       <c r="Y35" t="n">
-        <v>353.469288183567</v>
+        <v>306.875782586873</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>107.4287612666574</v>
+        <v>88.36182781229004</v>
       </c>
       <c r="C36" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D36" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E36" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F36" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G36" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H36" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I36" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J36" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K36" t="n">
+        <v>8.211000669216331</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.211000669216331</v>
+      </c>
+      <c r="M36" t="n">
         <v>109.8221339507684</v>
       </c>
-      <c r="L36" t="n">
-        <v>207.3277668977123</v>
-      </c>
-      <c r="M36" t="n">
-        <v>308.9389001792644</v>
-      </c>
       <c r="N36" t="n">
-        <v>308.9389001792644</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="O36" t="n">
-        <v>410.5500334608164</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="P36" t="n">
-        <v>410.5500334608164</v>
+        <v>341.1554749474872</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R36" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S36" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T36" t="n">
-        <v>410.5500334608164</v>
+        <v>399.3845804341207</v>
       </c>
       <c r="U36" t="n">
-        <v>410.5500334608164</v>
+        <v>295.7103295601772</v>
       </c>
       <c r="V36" t="n">
-        <v>306.8757825868728</v>
+        <v>192.0360786862336</v>
       </c>
       <c r="W36" t="n">
-        <v>203.2015317129293</v>
+        <v>88.36182781229004</v>
       </c>
       <c r="X36" t="n">
-        <v>203.2015317129293</v>
+        <v>88.36182781229004</v>
       </c>
       <c r="Y36" t="n">
-        <v>107.4287612666574</v>
+        <v>88.36182781229004</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.52728083898576</v>
+        <v>343.100490902905</v>
       </c>
       <c r="C37" t="n">
-        <v>99.52728083898576</v>
+        <v>268.4665101130514</v>
       </c>
       <c r="D37" t="n">
-        <v>99.52728083898576</v>
+        <v>268.4665101130514</v>
       </c>
       <c r="E37" t="n">
-        <v>99.52728083898576</v>
+        <v>268.4665101130514</v>
       </c>
       <c r="F37" t="n">
-        <v>99.52728083898576</v>
+        <v>215.8787647531944</v>
       </c>
       <c r="G37" t="n">
-        <v>24.14162503920193</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="H37" t="n">
-        <v>8.211000669216329</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="I37" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J37" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K37" t="n">
         <v>78.58979207709835</v>
       </c>
       <c r="L37" t="n">
-        <v>105.9039170848113</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M37" t="n">
-        <v>145.0919552770335</v>
+        <v>219.3889635508726</v>
       </c>
       <c r="N37" t="n">
-        <v>246.7030885585855</v>
+        <v>263.0798142063089</v>
       </c>
       <c r="O37" t="n">
-        <v>313.6935059767372</v>
+        <v>313.6935059767374</v>
       </c>
       <c r="P37" t="n">
-        <v>403.4248679644878</v>
+        <v>403.4248679644879</v>
       </c>
       <c r="Q37" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R37" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S37" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T37" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U37" t="n">
-        <v>410.5500334608164</v>
+        <v>343.100490902905</v>
       </c>
       <c r="V37" t="n">
-        <v>306.8757825868728</v>
+        <v>343.100490902905</v>
       </c>
       <c r="W37" t="n">
-        <v>203.2015317129293</v>
+        <v>343.100490902905</v>
       </c>
       <c r="X37" t="n">
-        <v>99.52728083898576</v>
+        <v>343.100490902905</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.52728083898576</v>
+        <v>343.100490902905</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.5595024171034</v>
+        <v>42.44653556173641</v>
       </c>
       <c r="C38" t="n">
-        <v>111.8852515431599</v>
+        <v>42.44653556173641</v>
       </c>
       <c r="D38" t="n">
-        <v>8.211000669216329</v>
+        <v>42.44653556173641</v>
       </c>
       <c r="E38" t="n">
-        <v>8.211000669216329</v>
+        <v>42.44653556173641</v>
       </c>
       <c r="F38" t="n">
-        <v>8.211000669216329</v>
+        <v>42.44653556173641</v>
       </c>
       <c r="G38" t="n">
-        <v>8.211000669216329</v>
+        <v>42.44653556173641</v>
       </c>
       <c r="H38" t="n">
-        <v>8.211000669216329</v>
+        <v>42.44653556173641</v>
       </c>
       <c r="I38" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J38" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K38" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L38" t="n">
-        <v>211.4332672323204</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M38" t="n">
-        <v>313.0444005138725</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="N38" t="n">
-        <v>410.5500334608164</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O38" t="n">
-        <v>410.5500334608164</v>
+        <v>320.8899781687655</v>
       </c>
       <c r="P38" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q38" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R38" t="n">
-        <v>410.5500334608164</v>
+        <v>353.4692881835671</v>
       </c>
       <c r="S38" t="n">
-        <v>319.2337532910469</v>
+        <v>249.7950373096235</v>
       </c>
       <c r="T38" t="n">
-        <v>319.2337532910469</v>
+        <v>146.12078643568</v>
       </c>
       <c r="U38" t="n">
-        <v>319.2337532910469</v>
+        <v>146.12078643568</v>
       </c>
       <c r="V38" t="n">
-        <v>319.2337532910469</v>
+        <v>146.12078643568</v>
       </c>
       <c r="W38" t="n">
-        <v>319.2337532910469</v>
+        <v>42.44653556173641</v>
       </c>
       <c r="X38" t="n">
-        <v>319.2337532910469</v>
+        <v>42.44653556173641</v>
       </c>
       <c r="Y38" t="n">
-        <v>319.2337532910469</v>
+        <v>42.44653556173641</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>203.2015317129293</v>
+        <v>300.008455277812</v>
       </c>
       <c r="C39" t="n">
-        <v>123.0507045698556</v>
+        <v>219.8576281347383</v>
       </c>
       <c r="D39" t="n">
-        <v>73.14625353661853</v>
+        <v>165.2254206115403</v>
       </c>
       <c r="E39" t="n">
-        <v>8.211000669216329</v>
+        <v>100.2901677441381</v>
       </c>
       <c r="F39" t="n">
-        <v>8.211000669216329</v>
+        <v>52.63962394854751</v>
       </c>
       <c r="G39" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H39" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I39" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J39" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K39" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L39" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M39" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="N39" t="n">
-        <v>137.933208384383</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="O39" t="n">
-        <v>239.5443416659351</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P39" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R39" t="n">
-        <v>410.5500334608164</v>
+        <v>403.6827061517556</v>
       </c>
       <c r="S39" t="n">
-        <v>410.5500334608164</v>
+        <v>403.6827061517556</v>
       </c>
       <c r="T39" t="n">
-        <v>410.5500334608164</v>
+        <v>403.6827061517556</v>
       </c>
       <c r="U39" t="n">
-        <v>306.8757825868728</v>
+        <v>403.6827061517556</v>
       </c>
       <c r="V39" t="n">
-        <v>306.8757825868728</v>
+        <v>300.008455277812</v>
       </c>
       <c r="W39" t="n">
-        <v>306.8757825868728</v>
+        <v>300.008455277812</v>
       </c>
       <c r="X39" t="n">
-        <v>306.8757825868728</v>
+        <v>300.008455277812</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.2015317129293</v>
+        <v>300.008455277812</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.8552690207429</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="C40" t="n">
-        <v>61.82189211355613</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="D40" t="n">
-        <v>61.82189211355613</v>
+        <v>147.387094438647</v>
       </c>
       <c r="E40" t="n">
-        <v>8.211000669216329</v>
+        <v>136.1844018288572</v>
       </c>
       <c r="F40" t="n">
-        <v>8.211000669216329</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="G40" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H40" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I40" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J40" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K40" t="n">
         <v>78.58979207709835</v>
       </c>
       <c r="L40" t="n">
-        <v>105.9039170848113</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M40" t="n">
-        <v>168.3915220397489</v>
+        <v>219.3889635508726</v>
       </c>
       <c r="N40" t="n">
-        <v>212.0823726951852</v>
+        <v>263.0798142063089</v>
       </c>
       <c r="O40" t="n">
-        <v>313.6935059767372</v>
+        <v>313.6935059767374</v>
       </c>
       <c r="P40" t="n">
-        <v>403.4248679644878</v>
+        <v>403.4248679644879</v>
       </c>
       <c r="Q40" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R40" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S40" t="n">
-        <v>410.5500334608164</v>
+        <v>306.875782586873</v>
       </c>
       <c r="T40" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="U40" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="V40" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="W40" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="X40" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="Y40" t="n">
-        <v>203.2015317129293</v>
+        <v>203.2015317129294</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>306.875782586873</v>
+      </c>
+      <c r="C41" t="n">
+        <v>306.875782586873</v>
+      </c>
+      <c r="D41" t="n">
+        <v>306.875782586873</v>
+      </c>
+      <c r="E41" t="n">
+        <v>203.2015317129294</v>
+      </c>
+      <c r="F41" t="n">
+        <v>203.2015317129294</v>
+      </c>
+      <c r="G41" t="n">
+        <v>203.2015317129294</v>
+      </c>
+      <c r="H41" t="n">
         <v>111.8852515431599</v>
       </c>
-      <c r="C41" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="D41" t="n">
-        <v>8.211000669216329</v>
-      </c>
-      <c r="E41" t="n">
-        <v>8.211000669216329</v>
-      </c>
-      <c r="F41" t="n">
-        <v>8.211000669216329</v>
-      </c>
-      <c r="G41" t="n">
-        <v>8.211000669216329</v>
-      </c>
-      <c r="H41" t="n">
-        <v>8.211000669216329</v>
-      </c>
       <c r="I41" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J41" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K41" t="n">
-        <v>16.05657832410927</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L41" t="n">
         <v>16.05657832410927</v>
       </c>
       <c r="M41" t="n">
-        <v>117.6677116056613</v>
+        <v>117.6677116056614</v>
       </c>
       <c r="N41" t="n">
         <v>219.2788448872134</v>
       </c>
       <c r="O41" t="n">
-        <v>320.8899781687654</v>
+        <v>320.8899781687655</v>
       </c>
       <c r="P41" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q41" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R41" t="n">
-        <v>319.2337532910469</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S41" t="n">
-        <v>319.2337532910469</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T41" t="n">
-        <v>319.2337532910469</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U41" t="n">
-        <v>319.2337532910469</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="V41" t="n">
-        <v>319.2337532910469</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="W41" t="n">
-        <v>319.2337532910469</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="X41" t="n">
-        <v>319.2337532910469</v>
+        <v>306.875782586873</v>
       </c>
       <c r="Y41" t="n">
-        <v>215.5595024171034</v>
+        <v>306.875782586873</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>48.76268478320074</v>
+        <v>272.2930550509774</v>
       </c>
       <c r="C42" t="n">
-        <v>48.76268478320074</v>
+        <v>168.6188041770338</v>
       </c>
       <c r="D42" t="n">
-        <v>48.76268478320074</v>
+        <v>168.6188041770338</v>
       </c>
       <c r="E42" t="n">
-        <v>48.76268478320074</v>
+        <v>168.6188041770338</v>
       </c>
       <c r="F42" t="n">
-        <v>48.76268478320074</v>
+        <v>71.83219123277789</v>
       </c>
       <c r="G42" t="n">
-        <v>48.76268478320074</v>
+        <v>71.83219123277789</v>
       </c>
       <c r="H42" t="n">
-        <v>48.76268478320074</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I42" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J42" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K42" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L42" t="n">
-        <v>36.32207510283096</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="M42" t="n">
-        <v>36.32207510283096</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="N42" t="n">
-        <v>137.933208384383</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="O42" t="n">
-        <v>239.5443416659351</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P42" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R42" t="n">
-        <v>359.7854374050314</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S42" t="n">
-        <v>359.7854374050314</v>
+        <v>375.9673059249209</v>
       </c>
       <c r="T42" t="n">
-        <v>359.7854374050314</v>
+        <v>375.9673059249209</v>
       </c>
       <c r="U42" t="n">
-        <v>256.1111865310878</v>
+        <v>375.9673059249209</v>
       </c>
       <c r="V42" t="n">
-        <v>152.4369356571443</v>
+        <v>375.9673059249209</v>
       </c>
       <c r="W42" t="n">
-        <v>48.76268478320074</v>
+        <v>375.9673059249209</v>
       </c>
       <c r="X42" t="n">
-        <v>48.76268478320074</v>
+        <v>375.9673059249209</v>
       </c>
       <c r="Y42" t="n">
-        <v>48.76268478320074</v>
+        <v>272.2930550509774</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="C43" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D43" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E43" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F43" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G43" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H43" t="n">
-        <v>156.439508652354</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I43" t="n">
-        <v>52.76525777841053</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K43" t="n">
-        <v>34.92216468437715</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L43" t="n">
         <v>110.9942506148749</v>
@@ -7581,40 +7581,40 @@
         <v>198.9402497298819</v>
       </c>
       <c r="N43" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081031</v>
       </c>
       <c r="O43" t="n">
-        <v>364.486298865787</v>
+        <v>364.4862988657871</v>
       </c>
       <c r="P43" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q43" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R43" t="n">
-        <v>363.7880104002411</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S43" t="n">
-        <v>260.1137595262976</v>
+        <v>306.875782586873</v>
       </c>
       <c r="T43" t="n">
-        <v>156.439508652354</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="U43" t="n">
-        <v>156.439508652354</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="V43" t="n">
-        <v>156.439508652354</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="W43" t="n">
-        <v>156.439508652354</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="X43" t="n">
-        <v>156.439508652354</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="Y43" t="n">
-        <v>156.439508652354</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C44" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="D44" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E44" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L44" t="n">
         <v>16.05657832410927</v>
       </c>
       <c r="M44" t="n">
-        <v>117.6677116056613</v>
+        <v>117.6677116056614</v>
       </c>
       <c r="N44" t="n">
         <v>219.2788448872134</v>
       </c>
       <c r="O44" t="n">
-        <v>320.8899781687654</v>
+        <v>320.8899781687655</v>
       </c>
       <c r="P44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T44" t="n">
-        <v>410.5500334608164</v>
+        <v>306.875782586873</v>
       </c>
       <c r="U44" t="n">
-        <v>306.8757825868728</v>
+        <v>306.875782586873</v>
       </c>
       <c r="V44" t="n">
-        <v>306.8757825868728</v>
+        <v>306.875782586873</v>
       </c>
       <c r="W44" t="n">
-        <v>203.2015317129293</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="X44" t="n">
-        <v>203.2015317129293</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="Y44" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.211000669216329</v>
+        <v>151.7799472946742</v>
       </c>
       <c r="C45" t="n">
-        <v>8.211000669216329</v>
+        <v>151.7799472946742</v>
       </c>
       <c r="D45" t="n">
-        <v>8.211000669216329</v>
+        <v>151.7799472946742</v>
       </c>
       <c r="E45" t="n">
-        <v>8.211000669216329</v>
+        <v>151.7799472946742</v>
       </c>
       <c r="F45" t="n">
-        <v>8.211000669216329</v>
+        <v>151.7799472946742</v>
       </c>
       <c r="G45" t="n">
-        <v>8.211000669216329</v>
+        <v>62.79706690614886</v>
       </c>
       <c r="H45" t="n">
-        <v>8.211000669216329</v>
+        <v>48.76268478320074</v>
       </c>
       <c r="I45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K45" t="n">
-        <v>36.32207510283096</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L45" t="n">
-        <v>36.32207510283096</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M45" t="n">
-        <v>137.933208384383</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="N45" t="n">
-        <v>137.933208384383</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="O45" t="n">
-        <v>239.5443416659351</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P45" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R45" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425613</v>
       </c>
       <c r="S45" t="n">
-        <v>319.2337532910469</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="T45" t="n">
-        <v>215.5595024171034</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="U45" t="n">
-        <v>111.8852515431599</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="V45" t="n">
-        <v>111.8852515431599</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="W45" t="n">
-        <v>8.211000669216329</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="X45" t="n">
-        <v>8.211000669216329</v>
+        <v>151.7799472946742</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.211000669216329</v>
+        <v>151.7799472946742</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>203.2015317129293</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="C46" t="n">
-        <v>99.52728083898576</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="D46" t="n">
-        <v>52.76525777841056</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="E46" t="n">
-        <v>52.76525777841056</v>
+        <v>312.3848849072825</v>
       </c>
       <c r="F46" t="n">
-        <v>52.76525777841056</v>
+        <v>215.2428824382313</v>
       </c>
       <c r="G46" t="n">
-        <v>52.76525777841056</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H46" t="n">
-        <v>52.76525777841056</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I46" t="n">
-        <v>52.76525777841056</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J46" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K46" t="n">
-        <v>34.92216468437712</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L46" t="n">
         <v>110.9942506148749</v>
@@ -7821,37 +7821,37 @@
         <v>291.389061308103</v>
       </c>
       <c r="O46" t="n">
-        <v>364.486298865787</v>
+        <v>364.4862988657871</v>
       </c>
       <c r="P46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="V46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="W46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="X46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Y46" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608165</v>
       </c>
     </row>
   </sheetData>
@@ -9640,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>322.7273594101846</v>
+        <v>322.7273594101847</v>
       </c>
       <c r="L23" t="n">
-        <v>334.2569533002336</v>
+        <v>338.4039233351914</v>
       </c>
       <c r="M23" t="n">
-        <v>332.9837415924768</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>332.050571961795</v>
+        <v>327.9036019268373</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>241.1918881450783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>244.7715422872224</v>
       </c>
       <c r="N24" t="n">
-        <v>229.8322504135797</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O24" t="n">
-        <v>245.2337528096485</v>
+        <v>170.9912691248632</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795344</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,19 +9880,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>338.4039233351913</v>
+        <v>338.4039233351914</v>
       </c>
       <c r="M26" t="n">
-        <v>332.9837415924768</v>
+        <v>238.271059141306</v>
       </c>
       <c r="N26" t="n">
-        <v>327.9036019268373</v>
+        <v>332.0505719617951</v>
       </c>
       <c r="O26" t="n">
         <v>332.7357197868909</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9965,16 +9965,16 @@
         <v>244.7715422872224</v>
       </c>
       <c r="N27" t="n">
-        <v>159.7367367637521</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O27" t="n">
-        <v>245.2337528096485</v>
+        <v>245.2337528096486</v>
       </c>
       <c r="P27" t="n">
-        <v>236.6119157795343</v>
+        <v>232.4649457445767</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,19 +10114,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>322.7273594101846</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>338.4039233351913</v>
+        <v>338.4039233351914</v>
       </c>
       <c r="M29" t="n">
-        <v>332.9837415924768</v>
+        <v>332.9837415924769</v>
       </c>
       <c r="N29" t="n">
         <v>327.9036019268373</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P29" t="n">
         <v>231.2329957552695</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L30" t="n">
         <v>241.1918881450783</v>
       </c>
       <c r="M30" t="n">
-        <v>244.7715422872224</v>
+        <v>170.5290586024371</v>
       </c>
       <c r="N30" t="n">
-        <v>233.9792204485374</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0867827746908</v>
+        <v>245.2337528096486</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>322.7273594101846</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>338.4039233351913</v>
+        <v>243.6912408840205</v>
       </c>
       <c r="M32" t="n">
-        <v>332.9837415924768</v>
+        <v>332.9837415924769</v>
       </c>
       <c r="N32" t="n">
-        <v>327.9036019268373</v>
+        <v>332.0505719617951</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10433,19 +10433,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>166.949404460293</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>244.7715422872224</v>
+        <v>170.5290586024371</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O33" t="n">
-        <v>245.2337528096485</v>
+        <v>245.2337528096486</v>
       </c>
       <c r="P33" t="n">
-        <v>236.6119157795343</v>
+        <v>236.6119157795344</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>322.7273594101846</v>
+        <v>322.7273594101847</v>
       </c>
       <c r="L35" t="n">
-        <v>338.4039233351913</v>
+        <v>338.4039233351914</v>
       </c>
       <c r="M35" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>237.3378895106242</v>
+        <v>332.0505719617951</v>
       </c>
       <c r="O35" t="n">
-        <v>332.7357197868909</v>
+        <v>328.5887497519331</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>240.4789473395631</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>237.0449181101206</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>244.7715422872224</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O36" t="n">
-        <v>245.2337528096485</v>
+        <v>170.9912691248632</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795344</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>322.7273594101846</v>
+        <v>322.7273594101847</v>
       </c>
       <c r="L38" t="n">
-        <v>338.4039233351913</v>
+        <v>338.4039233351914</v>
       </c>
       <c r="M38" t="n">
-        <v>332.9837415924768</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>327.9036019268373</v>
+        <v>237.3378895106242</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10907,22 +10907,22 @@
         <v>240.4789473395631</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>159.7367367637521</v>
+        <v>229.8322504135797</v>
       </c>
       <c r="O39" t="n">
-        <v>245.2337528096485</v>
+        <v>245.2337528096486</v>
       </c>
       <c r="P39" t="n">
-        <v>236.6119157795343</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>228.0146769590138</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>243.6912408840205</v>
       </c>
       <c r="M41" t="n">
-        <v>332.9837415924768</v>
+        <v>332.9837415924769</v>
       </c>
       <c r="N41" t="n">
-        <v>332.050571961795</v>
+        <v>332.0505719617951</v>
       </c>
       <c r="O41" t="n">
         <v>332.7357197868909</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L42" t="n">
-        <v>166.949404460293</v>
+        <v>237.0449181101205</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N42" t="n">
         <v>233.9792204485374</v>
       </c>
       <c r="O42" t="n">
-        <v>245.2337528096485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>236.6119157795343</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,10 +11305,10 @@
         <v>243.6912408840205</v>
       </c>
       <c r="M44" t="n">
-        <v>332.9837415924768</v>
+        <v>332.9837415924769</v>
       </c>
       <c r="N44" t="n">
-        <v>332.050571961795</v>
+        <v>332.0505719617951</v>
       </c>
       <c r="O44" t="n">
         <v>332.7357197868909</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>166.2364636547778</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M45" t="n">
         <v>244.7715422872224</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>229.8322504135797</v>
       </c>
       <c r="O45" t="n">
-        <v>245.2337528096485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>236.6119157795343</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.430047371318</v>
+        <v>291.4300473713179</v>
       </c>
       <c r="C17" t="n">
         <v>273.9690974788449</v>
       </c>
       <c r="D17" t="n">
-        <v>263.3792473285204</v>
+        <v>263.3792473285203</v>
       </c>
       <c r="E17" t="n">
-        <v>290.6265757800992</v>
+        <v>290.6265757800991</v>
       </c>
       <c r="F17" t="n">
-        <v>315.5722514495488</v>
+        <v>315.5722514495487</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9989432229725</v>
+        <v>323.9989432229723</v>
       </c>
       <c r="H17" t="n">
         <v>248.1710078236045</v>
       </c>
       <c r="I17" t="n">
-        <v>119.1720952782433</v>
+        <v>119.1720952782432</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.56532364898706</v>
+        <v>58.565323648987</v>
       </c>
       <c r="S17" t="n">
         <v>117.7162752940827</v>
@@ -23788,16 +23788,16 @@
         <v>131.7920552719687</v>
       </c>
       <c r="U17" t="n">
-        <v>160.0418586156739</v>
+        <v>160.0418586156738</v>
       </c>
       <c r="V17" t="n">
-        <v>236.4484641779723</v>
+        <v>236.4484641779722</v>
       </c>
       <c r="W17" t="n">
-        <v>257.9371744252504</v>
+        <v>257.9371744252503</v>
       </c>
       <c r="X17" t="n">
-        <v>278.4273063863064</v>
+        <v>278.4273063863063</v>
       </c>
       <c r="Y17" t="n">
         <v>294.9341443638909</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.22938935770472</v>
+        <v>75.22938935770466</v>
       </c>
       <c r="C18" t="n">
-        <v>81.40470469615312</v>
+        <v>81.40470469615306</v>
       </c>
       <c r="D18" t="n">
-        <v>56.14127127247613</v>
+        <v>56.14127127247608</v>
       </c>
       <c r="E18" t="n">
-        <v>66.34128616323832</v>
+        <v>66.34128616323827</v>
       </c>
       <c r="F18" t="n">
-        <v>53.76541810122126</v>
+        <v>53.7654181012212</v>
       </c>
       <c r="G18" t="n">
-        <v>46.03972287104801</v>
+        <v>46.03972287104796</v>
       </c>
       <c r="H18" t="n">
-        <v>20.93164994433384</v>
+        <v>20.93164994433378</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.854039860480512</v>
+        <v>8.854039860480455</v>
       </c>
       <c r="S18" t="n">
-        <v>80.3793768116752</v>
+        <v>80.37937681167514</v>
       </c>
       <c r="T18" t="n">
-        <v>108.860934402659</v>
+        <v>108.8609344026589</v>
       </c>
       <c r="U18" t="n">
-        <v>134.6375877888122</v>
+        <v>134.6375877888121</v>
       </c>
       <c r="V18" t="n">
         <v>141.4967928572626</v>
       </c>
       <c r="W18" t="n">
-        <v>160.391188868757</v>
+        <v>160.3911888687569</v>
       </c>
       <c r="X18" t="n">
-        <v>114.4691909113149</v>
+        <v>114.4691909113148</v>
       </c>
       <c r="Y18" t="n">
         <v>114.3789014851417</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.52818588977468</v>
+        <v>88.52818588977462</v>
       </c>
       <c r="C19" t="n">
-        <v>75.94302680646521</v>
+        <v>75.94302680646516</v>
       </c>
       <c r="D19" t="n">
-        <v>57.31167872604973</v>
+        <v>57.31167872604968</v>
       </c>
       <c r="E19" t="n">
-        <v>55.13016835440655</v>
+        <v>55.13016835440649</v>
       </c>
       <c r="F19" t="n">
-        <v>54.11725373076862</v>
+        <v>54.11725373076857</v>
       </c>
       <c r="G19" t="n">
-        <v>76.68718506629614</v>
+        <v>76.68718506629608</v>
       </c>
       <c r="H19" t="n">
-        <v>70.92337821527695</v>
+        <v>70.9233782152769</v>
       </c>
       <c r="I19" t="n">
-        <v>64.14668063509566</v>
+        <v>64.14668063509561</v>
       </c>
       <c r="J19" t="n">
-        <v>2.055385824510154</v>
+        <v>2.055385824510097</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.98959708500686</v>
+        <v>85.98959708500681</v>
       </c>
       <c r="S19" t="n">
         <v>132.7128037448096</v>
       </c>
       <c r="T19" t="n">
-        <v>136.6417951361189</v>
+        <v>136.6417951361188</v>
       </c>
       <c r="U19" t="n">
-        <v>195.0152350643283</v>
+        <v>195.0152350643282</v>
       </c>
       <c r="V19" t="n">
-        <v>160.8338490316654</v>
+        <v>160.8338490316653</v>
       </c>
       <c r="W19" t="n">
-        <v>195.2192040444284</v>
+        <v>195.2192040444283</v>
       </c>
       <c r="X19" t="n">
         <v>134.4058610968745</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.2808590599322</v>
+        <v>127.2808590599321</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291.430047371318</v>
+        <v>291.4300473713179</v>
       </c>
       <c r="C20" t="n">
         <v>273.9690974788449</v>
       </c>
       <c r="D20" t="n">
-        <v>263.3792473285204</v>
+        <v>263.3792473285203</v>
       </c>
       <c r="E20" t="n">
-        <v>290.6265757800992</v>
+        <v>290.6265757800991</v>
       </c>
       <c r="F20" t="n">
-        <v>315.5722514495488</v>
+        <v>315.5722514495487</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9989432229725</v>
+        <v>323.9989432229723</v>
       </c>
       <c r="H20" t="n">
         <v>248.1710078236045</v>
       </c>
       <c r="I20" t="n">
-        <v>119.1720952782433</v>
+        <v>119.1720952782432</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.56532364898706</v>
+        <v>58.565323648987</v>
       </c>
       <c r="S20" t="n">
         <v>117.7162752940827</v>
@@ -24025,16 +24025,16 @@
         <v>131.7920552719687</v>
       </c>
       <c r="U20" t="n">
-        <v>160.0418586156739</v>
+        <v>160.0418586156738</v>
       </c>
       <c r="V20" t="n">
-        <v>236.4484641779723</v>
+        <v>236.4484641779722</v>
       </c>
       <c r="W20" t="n">
-        <v>257.9371744252504</v>
+        <v>257.9371744252503</v>
       </c>
       <c r="X20" t="n">
-        <v>278.4273063863064</v>
+        <v>278.4273063863063</v>
       </c>
       <c r="Y20" t="n">
         <v>294.9341443638909</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.22938935770472</v>
+        <v>75.22938935770466</v>
       </c>
       <c r="C21" t="n">
-        <v>81.40470469615312</v>
+        <v>81.40470469615306</v>
       </c>
       <c r="D21" t="n">
-        <v>56.14127127247613</v>
+        <v>56.14127127247608</v>
       </c>
       <c r="E21" t="n">
-        <v>66.34128616323832</v>
+        <v>66.34128616323827</v>
       </c>
       <c r="F21" t="n">
-        <v>53.76541810122126</v>
+        <v>53.7654181012212</v>
       </c>
       <c r="G21" t="n">
-        <v>46.03972287104801</v>
+        <v>46.03972287104796</v>
       </c>
       <c r="H21" t="n">
-        <v>20.93164994433384</v>
+        <v>20.93164994433378</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.854039860480512</v>
+        <v>8.854039860480455</v>
       </c>
       <c r="S21" t="n">
-        <v>80.3793768116752</v>
+        <v>80.37937681167514</v>
       </c>
       <c r="T21" t="n">
-        <v>108.860934402659</v>
+        <v>108.8609344026589</v>
       </c>
       <c r="U21" t="n">
-        <v>134.6375877888122</v>
+        <v>134.6375877888121</v>
       </c>
       <c r="V21" t="n">
         <v>141.4967928572626</v>
       </c>
       <c r="W21" t="n">
-        <v>160.391188868757</v>
+        <v>160.3911888687569</v>
       </c>
       <c r="X21" t="n">
-        <v>114.4691909113149</v>
+        <v>114.4691909113148</v>
       </c>
       <c r="Y21" t="n">
         <v>114.3789014851417</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.52818588977468</v>
+        <v>88.52818588977462</v>
       </c>
       <c r="C22" t="n">
-        <v>75.94302680646521</v>
+        <v>75.94302680646516</v>
       </c>
       <c r="D22" t="n">
-        <v>57.31167872604973</v>
+        <v>57.31167872604968</v>
       </c>
       <c r="E22" t="n">
-        <v>55.13016835440655</v>
+        <v>55.13016835440649</v>
       </c>
       <c r="F22" t="n">
-        <v>54.11725373076862</v>
+        <v>54.11725373076857</v>
       </c>
       <c r="G22" t="n">
-        <v>76.68718506629614</v>
+        <v>76.68718506629608</v>
       </c>
       <c r="H22" t="n">
-        <v>70.92337821527695</v>
+        <v>70.9233782152769</v>
       </c>
       <c r="I22" t="n">
-        <v>64.14668063509566</v>
+        <v>64.14668063509561</v>
       </c>
       <c r="J22" t="n">
-        <v>2.055385824510154</v>
+        <v>2.055385824510097</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>85.98959708500686</v>
+        <v>85.98959708500681</v>
       </c>
       <c r="S22" t="n">
         <v>132.7128037448096</v>
       </c>
       <c r="T22" t="n">
-        <v>136.6417951361189</v>
+        <v>136.6417951361188</v>
       </c>
       <c r="U22" t="n">
-        <v>195.0152350643283</v>
+        <v>195.0152350643282</v>
       </c>
       <c r="V22" t="n">
-        <v>160.8338490316654</v>
+        <v>160.8338490316653</v>
       </c>
       <c r="W22" t="n">
-        <v>195.2192040444284</v>
+        <v>195.2192040444283</v>
       </c>
       <c r="X22" t="n">
         <v>134.4058610968745</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.2808590599322</v>
+        <v>127.2808590599321</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>291.430047371318</v>
+        <v>201.026930003246</v>
       </c>
       <c r="C23" t="n">
         <v>273.9690974788449</v>
       </c>
       <c r="D23" t="n">
-        <v>263.3792473285204</v>
+        <v>263.3792473285203</v>
       </c>
       <c r="E23" t="n">
-        <v>290.6265757800992</v>
+        <v>187.9890674148949</v>
       </c>
       <c r="F23" t="n">
-        <v>283.7344577304642</v>
+        <v>315.5722514495487</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9989432229725</v>
+        <v>323.9989432229723</v>
       </c>
       <c r="H23" t="n">
         <v>248.1710078236045</v>
       </c>
       <c r="I23" t="n">
-        <v>119.1720952782433</v>
+        <v>119.1720952782432</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>58.565323648987</v>
       </c>
       <c r="S23" t="n">
-        <v>15.07876692887862</v>
+        <v>117.7162752940827</v>
       </c>
       <c r="T23" t="n">
         <v>131.7920552719687</v>
       </c>
       <c r="U23" t="n">
-        <v>57.40435025046978</v>
+        <v>160.0418586156738</v>
       </c>
       <c r="V23" t="n">
-        <v>133.8109558127682</v>
+        <v>236.4484641779722</v>
       </c>
       <c r="W23" t="n">
-        <v>257.9371744252504</v>
+        <v>257.9371744252503</v>
       </c>
       <c r="X23" t="n">
-        <v>278.4273063863064</v>
+        <v>175.7897980211022</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.9341443638909</v>
+        <v>192.2966359986868</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>75.22938935770466</v>
       </c>
       <c r="C24" t="n">
-        <v>81.40470469615312</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>56.14127127247613</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>66.34128616323832</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>47.44572995133476</v>
+        <v>53.7654181012212</v>
       </c>
       <c r="G24" t="n">
-        <v>46.03972287104801</v>
+        <v>46.03972287104796</v>
       </c>
       <c r="H24" t="n">
-        <v>20.93164994433384</v>
+        <v>20.93164994433378</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>80.3793768116752</v>
+        <v>80.37937681167514</v>
       </c>
       <c r="T24" t="n">
-        <v>6.223426037454885</v>
+        <v>108.8609344026589</v>
       </c>
       <c r="U24" t="n">
-        <v>134.6375877888122</v>
+        <v>32.00007942360801</v>
       </c>
       <c r="V24" t="n">
-        <v>38.85928449205855</v>
+        <v>141.4967928572626</v>
       </c>
       <c r="W24" t="n">
-        <v>160.391188868757</v>
+        <v>77.45435676262473</v>
       </c>
       <c r="X24" t="n">
-        <v>114.4691909113149</v>
+        <v>114.4691909113148</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.74139311993764</v>
+        <v>114.3789014851417</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.52818588977468</v>
+        <v>88.52818588977462</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75.94302680646516</v>
       </c>
       <c r="D25" t="n">
-        <v>57.31167872604973</v>
+        <v>57.31167872604968</v>
       </c>
       <c r="E25" t="n">
-        <v>55.13016835440655</v>
+        <v>55.13016835440649</v>
       </c>
       <c r="F25" t="n">
-        <v>54.11725373076862</v>
+        <v>54.11725373076857</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>76.68718506629608</v>
       </c>
       <c r="H25" t="n">
-        <v>70.92337821527695</v>
+        <v>70.9233782152769</v>
       </c>
       <c r="I25" t="n">
-        <v>64.14668063509566</v>
+        <v>64.14668063509561</v>
       </c>
       <c r="J25" t="n">
-        <v>2.055385824510154</v>
+        <v>2.055385824510097</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>85.98959708500686</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.30238988429517</v>
+        <v>30.07529537960545</v>
       </c>
       <c r="T25" t="n">
-        <v>136.6417951361189</v>
+        <v>136.6417951361188</v>
       </c>
       <c r="U25" t="n">
-        <v>195.0152350643283</v>
+        <v>195.0152350643282</v>
       </c>
       <c r="V25" t="n">
-        <v>160.8338490316654</v>
+        <v>58.1963406664612</v>
       </c>
       <c r="W25" t="n">
-        <v>195.2192040444284</v>
+        <v>195.2192040444283</v>
       </c>
       <c r="X25" t="n">
-        <v>31.76835273167043</v>
+        <v>31.76835273167035</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.64335069472807</v>
+        <v>122.8673387768671</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>230.845867719706</v>
+        <v>333.48337608491</v>
       </c>
       <c r="C26" t="n">
-        <v>225.6193088243653</v>
+        <v>316.022426192437</v>
       </c>
       <c r="D26" t="n">
         <v>305.4325760421124</v>
       </c>
       <c r="E26" t="n">
-        <v>332.6799044936913</v>
+        <v>230.0423961284871</v>
       </c>
       <c r="F26" t="n">
-        <v>357.6255801631409</v>
+        <v>254.9880717979368</v>
       </c>
       <c r="G26" t="n">
-        <v>263.4147635713604</v>
+        <v>273.6302985658677</v>
       </c>
       <c r="H26" t="n">
         <v>290.2243365371966</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>159.7696040076748</v>
@@ -24511,7 +24511,7 @@
         <v>320.4806350998985</v>
       </c>
       <c r="Y26" t="n">
-        <v>234.349964712279</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.64520970609273</v>
+        <v>117.2827180712968</v>
       </c>
       <c r="C27" t="n">
         <v>123.4580334097452</v>
       </c>
       <c r="D27" t="n">
-        <v>98.19459998606824</v>
+        <v>98.19459998606823</v>
       </c>
       <c r="E27" t="n">
-        <v>17.9914975087587</v>
+        <v>66.43201938612054</v>
       </c>
       <c r="F27" t="n">
-        <v>95.81874681481337</v>
+        <v>95.81874681481335</v>
       </c>
       <c r="G27" t="n">
-        <v>88.09305158464012</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>62.98497865792595</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>40.14616727284456</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.90736857407262</v>
+        <v>50.90736857407261</v>
       </c>
       <c r="S27" t="n">
-        <v>122.4327055252673</v>
+        <v>19.79519716006317</v>
       </c>
       <c r="T27" t="n">
-        <v>48.27675475104701</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U27" t="n">
         <v>176.6909165024043</v>
       </c>
       <c r="V27" t="n">
-        <v>183.5501215708547</v>
+        <v>80.91261320565062</v>
       </c>
       <c r="W27" t="n">
         <v>202.4445175823491</v>
       </c>
       <c r="X27" t="n">
-        <v>53.88501125970288</v>
+        <v>156.5225196249069</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.4322301987339</v>
+        <v>156.4322301987338</v>
       </c>
     </row>
     <row r="28">
@@ -24606,25 +24606,25 @@
         <v>117.9963555200573</v>
       </c>
       <c r="D28" t="n">
-        <v>99.36500743964184</v>
+        <v>99.36500743964183</v>
       </c>
       <c r="E28" t="n">
-        <v>97.18349706799866</v>
+        <v>97.18349706799864</v>
       </c>
       <c r="F28" t="n">
-        <v>96.17058244436073</v>
+        <v>96.17058244436072</v>
       </c>
       <c r="G28" t="n">
-        <v>118.7405137798882</v>
+        <v>16.10300541468411</v>
       </c>
       <c r="H28" t="n">
-        <v>112.9767069288691</v>
+        <v>112.976706928869</v>
       </c>
       <c r="I28" t="n">
         <v>106.2000093486878</v>
       </c>
       <c r="J28" t="n">
-        <v>44.10871453810226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.91157767312387</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>128.042925798599</v>
       </c>
       <c r="S28" t="n">
-        <v>72.12862409319763</v>
+        <v>72.1286240931976</v>
       </c>
       <c r="T28" t="n">
-        <v>76.05761548450687</v>
+        <v>178.695123849711</v>
       </c>
       <c r="U28" t="n">
-        <v>134.4310554127163</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V28" t="n">
-        <v>112.4840603771857</v>
+        <v>193.5043525884118</v>
       </c>
       <c r="W28" t="n">
-        <v>237.2725327580205</v>
+        <v>134.6350243928163</v>
       </c>
       <c r="X28" t="n">
         <v>176.4591898104666</v>
@@ -24685,10 +24685,10 @@
         <v>316.022426192437</v>
       </c>
       <c r="D29" t="n">
-        <v>202.7950676769083</v>
+        <v>213.0106026714157</v>
       </c>
       <c r="E29" t="n">
-        <v>242.2767871256195</v>
+        <v>332.6799044936913</v>
       </c>
       <c r="F29" t="n">
         <v>357.6255801631409</v>
@@ -24700,7 +24700,7 @@
         <v>290.2243365371966</v>
       </c>
       <c r="I29" t="n">
-        <v>161.2254239918354</v>
+        <v>58.58791562663126</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>159.7696040076748</v>
+        <v>57.13209564247069</v>
       </c>
       <c r="T29" t="n">
         <v>173.8453839855608</v>
       </c>
       <c r="U29" t="n">
-        <v>99.45767896406187</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V29" t="n">
         <v>278.5017928915644</v>
       </c>
       <c r="W29" t="n">
-        <v>197.3529947736384</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X29" t="n">
         <v>320.4806350998985</v>
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14.64520970609273</v>
+        <v>14.64520970609269</v>
       </c>
       <c r="C30" t="n">
         <v>123.4580334097452</v>
       </c>
       <c r="D30" t="n">
-        <v>98.19459998606824</v>
+        <v>98.19459998606823</v>
       </c>
       <c r="E30" t="n">
         <v>108.3946148768304</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>95.81874681481335</v>
       </c>
       <c r="G30" t="n">
-        <v>88.09305158464012</v>
+        <v>88.09305158464011</v>
       </c>
       <c r="H30" t="n">
-        <v>62.98497865792595</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>40.14616727284456</v>
+        <v>40.14616727284455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.90736857407262</v>
+        <v>50.90736857407261</v>
       </c>
       <c r="S30" t="n">
         <v>122.4327055252673</v>
       </c>
       <c r="T30" t="n">
-        <v>150.9142631162511</v>
+        <v>48.27675475104695</v>
       </c>
       <c r="U30" t="n">
-        <v>176.6909165024043</v>
+        <v>74.05340813720017</v>
       </c>
       <c r="V30" t="n">
-        <v>183.5501215708547</v>
+        <v>156.1319828607089</v>
       </c>
       <c r="W30" t="n">
         <v>202.4445175823491</v>
       </c>
       <c r="X30" t="n">
-        <v>59.30064070644451</v>
+        <v>156.5225196249069</v>
       </c>
       <c r="Y30" t="n">
-        <v>53.79472183352976</v>
+        <v>156.4322301987338</v>
       </c>
     </row>
     <row r="31">
@@ -24843,25 +24843,25 @@
         <v>117.9963555200573</v>
       </c>
       <c r="D31" t="n">
-        <v>83.51525636195282</v>
+        <v>99.36500743964183</v>
       </c>
       <c r="E31" t="n">
-        <v>97.18349706799866</v>
+        <v>97.18349706799864</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>96.17058244436072</v>
       </c>
       <c r="G31" t="n">
         <v>118.7405137798882</v>
       </c>
       <c r="H31" t="n">
-        <v>112.9767069288691</v>
+        <v>112.976706928869</v>
       </c>
       <c r="I31" t="n">
-        <v>3.562500983483673</v>
+        <v>106.2000093486878</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>44.10871453810225</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>36.91157767312386</v>
       </c>
       <c r="R31" t="n">
-        <v>128.042925798599</v>
+        <v>37.63980843052718</v>
       </c>
       <c r="S31" t="n">
-        <v>174.7661324584017</v>
+        <v>72.1286240931976</v>
       </c>
       <c r="T31" t="n">
         <v>178.695123849711</v>
       </c>
       <c r="U31" t="n">
-        <v>237.0685637779204</v>
+        <v>134.4310554127162</v>
       </c>
       <c r="V31" t="n">
         <v>202.8871777452575</v>
       </c>
       <c r="W31" t="n">
-        <v>237.2725327580205</v>
+        <v>134.6350243928163</v>
       </c>
       <c r="X31" t="n">
-        <v>73.82168144526253</v>
+        <v>176.4591898104666</v>
       </c>
       <c r="Y31" t="n">
         <v>169.3341877735243</v>
@@ -24922,7 +24922,7 @@
         <v>271.9137116543347</v>
       </c>
       <c r="D32" t="n">
-        <v>261.3238615040102</v>
+        <v>158.6863531388061</v>
       </c>
       <c r="E32" t="n">
         <v>288.571189955589</v>
@@ -24934,10 +24934,10 @@
         <v>321.9435573984623</v>
       </c>
       <c r="H32" t="n">
-        <v>155.7125046310226</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I32" t="n">
-        <v>117.1167094537331</v>
+        <v>14.47920108852901</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.6608894695726</v>
+        <v>13.02338110436844</v>
       </c>
       <c r="T32" t="n">
         <v>129.7366694474586</v>
@@ -24976,16 +24976,16 @@
         <v>157.9864727911637</v>
       </c>
       <c r="V32" t="n">
-        <v>131.755569988258</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W32" t="n">
         <v>255.8817886007402</v>
       </c>
       <c r="X32" t="n">
-        <v>173.7344121965922</v>
+        <v>242.4787410182014</v>
       </c>
       <c r="Y32" t="n">
-        <v>190.2412501741767</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>68.91885907273607</v>
       </c>
       <c r="C33" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>10.43828866448144</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>78.32399098716505</v>
@@ -25052,10 +25052,10 @@
         <v>106.8055485781488</v>
       </c>
       <c r="U33" t="n">
-        <v>132.582201964302</v>
+        <v>29.94469359909792</v>
       </c>
       <c r="V33" t="n">
-        <v>139.4414070327525</v>
+        <v>36.80389866754837</v>
       </c>
       <c r="W33" t="n">
         <v>158.3358030442468</v>
@@ -25064,7 +25064,7 @@
         <v>112.4138050868047</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.686007295427487</v>
+        <v>9.686007295427459</v>
       </c>
     </row>
     <row r="34">
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>130.6574179202995</v>
+        <v>28.01990955509535</v>
       </c>
       <c r="T34" t="n">
-        <v>44.18329194353694</v>
+        <v>31.94890094640459</v>
       </c>
       <c r="U34" t="n">
-        <v>90.32234087461401</v>
+        <v>186.490943132243</v>
       </c>
       <c r="V34" t="n">
-        <v>56.14095484195113</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W34" t="n">
-        <v>90.52630985471413</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X34" t="n">
         <v>132.3504752723644</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.225473235422</v>
+        <v>22.58796487021789</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>186.7371531816037</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C35" t="n">
-        <v>169.2762032891306</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D35" t="n">
-        <v>158.6863531388061</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E35" t="n">
         <v>288.571189955589</v>
       </c>
       <c r="F35" t="n">
-        <v>279.6236860814439</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G35" t="n">
-        <v>321.9435573984623</v>
+        <v>231.5404400303905</v>
       </c>
       <c r="H35" t="n">
-        <v>246.1156219990944</v>
+        <v>143.4781136338902</v>
       </c>
       <c r="I35" t="n">
-        <v>117.1167094537331</v>
+        <v>14.47920108852901</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S35" t="n">
         <v>115.6608894695726</v>
       </c>
       <c r="T35" t="n">
-        <v>129.7366694474586</v>
+        <v>27.09916108225445</v>
       </c>
       <c r="U35" t="n">
         <v>157.9864727911637</v>
@@ -25250,7 +25250,7 @@
         <v>43.98433704653786</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
-        <v>106.8055485781488</v>
+        <v>95.75175008172</v>
       </c>
       <c r="U36" t="n">
-        <v>132.582201964302</v>
+        <v>29.94469359909792</v>
       </c>
       <c r="V36" t="n">
-        <v>36.8038986675484</v>
+        <v>36.80389866754837</v>
       </c>
       <c r="W36" t="n">
-        <v>55.69829467904273</v>
+        <v>55.6982946790427</v>
       </c>
       <c r="X36" t="n">
         <v>112.4138050868047</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.50847291882242</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>86.47280006526452</v>
       </c>
       <c r="C37" t="n">
-        <v>73.88764098195506</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>55.25629290153958</v>
@@ -25323,16 +25323,16 @@
         <v>53.0747825298964</v>
       </c>
       <c r="F37" t="n">
-        <v>52.06186790625847</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>53.09667426448106</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.09129481058551</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>134.5864093116087</v>
       </c>
       <c r="U37" t="n">
-        <v>192.9598492398181</v>
+        <v>126.1848021074857</v>
       </c>
       <c r="V37" t="n">
-        <v>56.14095484195113</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W37" t="n">
-        <v>90.52630985471413</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X37" t="n">
-        <v>29.71296690716028</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y37" t="n">
         <v>125.225473235422</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>186.7371531816037</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C38" t="n">
-        <v>169.2762032891306</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D38" t="n">
-        <v>158.6863531388061</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E38" t="n">
         <v>288.571189955589</v>
@@ -25411,7 +25411,7 @@
         <v>246.1156219990944</v>
       </c>
       <c r="I38" t="n">
-        <v>117.1167094537331</v>
+        <v>83.22352991013827</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>25.25777210150079</v>
+        <v>13.02338110436844</v>
       </c>
       <c r="T38" t="n">
-        <v>129.7366694474586</v>
+        <v>27.09916108225445</v>
       </c>
       <c r="U38" t="n">
         <v>157.9864727911637</v>
@@ -25453,7 +25453,7 @@
         <v>234.3930783534621</v>
       </c>
       <c r="W38" t="n">
-        <v>255.8817886007402</v>
+        <v>153.2442802355361</v>
       </c>
       <c r="X38" t="n">
         <v>276.3719205617963</v>
@@ -25475,16 +25475,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>4.680478925061301</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>51.7100322767111</v>
+        <v>4.53599391907639</v>
       </c>
       <c r="G39" t="n">
-        <v>43.98433704653786</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>18.87626411982369</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>78.32399098716505</v>
@@ -25526,10 +25526,10 @@
         <v>106.8055485781488</v>
       </c>
       <c r="U39" t="n">
-        <v>29.94469359909795</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V39" t="n">
-        <v>139.4414070327525</v>
+        <v>36.80389866754837</v>
       </c>
       <c r="W39" t="n">
         <v>158.3358030442468</v>
@@ -25538,7 +25538,7 @@
         <v>112.4138050868047</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.686007295427487</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="40">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C40" t="n">
-        <v>20.39459784384015</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D40" t="n">
-        <v>55.25629290153958</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>41.98411684620449</v>
       </c>
       <c r="F40" t="n">
-        <v>52.06186790625847</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>68.8679923907668</v>
@@ -25599,10 +25599,10 @@
         <v>83.93421126049671</v>
       </c>
       <c r="S40" t="n">
-        <v>130.6574179202995</v>
+        <v>28.01990955509535</v>
       </c>
       <c r="T40" t="n">
-        <v>134.5864093116087</v>
+        <v>31.94890094640459</v>
       </c>
       <c r="U40" t="n">
         <v>192.9598492398181</v>
@@ -25614,10 +25614,10 @@
         <v>193.1638182199182</v>
       </c>
       <c r="X40" t="n">
-        <v>29.71296690716028</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y40" t="n">
-        <v>22.58796487021792</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.845867719706</v>
+        <v>333.48337608491</v>
       </c>
       <c r="C41" t="n">
         <v>316.022426192437</v>
       </c>
       <c r="D41" t="n">
-        <v>202.7950676769083</v>
+        <v>305.4325760421124</v>
       </c>
       <c r="E41" t="n">
-        <v>332.6799044936913</v>
+        <v>230.0423961284871</v>
       </c>
       <c r="F41" t="n">
         <v>357.6255801631409</v>
@@ -25645,10 +25645,10 @@
         <v>366.0522719365645</v>
       </c>
       <c r="H41" t="n">
-        <v>290.2243365371966</v>
+        <v>199.8212191691248</v>
       </c>
       <c r="I41" t="n">
-        <v>161.2254239918354</v>
+        <v>58.58791562663126</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>10.21553499450739</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S41" t="n">
         <v>159.7696040076748</v>
@@ -25693,10 +25693,10 @@
         <v>299.9905031388425</v>
       </c>
       <c r="X41" t="n">
-        <v>320.4806350998985</v>
+        <v>217.8431267346944</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.349964712279</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>117.2827180712968</v>
       </c>
       <c r="C42" t="n">
-        <v>123.4580334097452</v>
+        <v>20.82052504454109</v>
       </c>
       <c r="D42" t="n">
-        <v>98.19459998606824</v>
+        <v>98.19459998606823</v>
       </c>
       <c r="E42" t="n">
         <v>108.3946148768304</v>
       </c>
       <c r="F42" t="n">
-        <v>95.81874681481337</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>88.09305158464012</v>
+        <v>88.09305158464011</v>
       </c>
       <c r="H42" t="n">
-        <v>62.98497865792595</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>40.14616727284456</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.6504184788454381</v>
+        <v>50.90736857407261</v>
       </c>
       <c r="S42" t="n">
-        <v>122.4327055252673</v>
+        <v>88.19580526473068</v>
       </c>
       <c r="T42" t="n">
         <v>150.9142631162511</v>
       </c>
       <c r="U42" t="n">
-        <v>74.05340813720022</v>
+        <v>176.6909165024043</v>
       </c>
       <c r="V42" t="n">
-        <v>80.91261320565064</v>
+        <v>183.5501215708547</v>
       </c>
       <c r="W42" t="n">
-        <v>99.80700921714498</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X42" t="n">
-        <v>156.522519624907</v>
+        <v>156.5225196249069</v>
       </c>
       <c r="Y42" t="n">
-        <v>156.4322301987339</v>
+        <v>53.79472183352971</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.5815146033668</v>
+        <v>27.94400623816264</v>
       </c>
       <c r="C43" t="n">
         <v>117.9963555200573</v>
       </c>
       <c r="D43" t="n">
-        <v>99.36500743964184</v>
+        <v>99.36500743964183</v>
       </c>
       <c r="E43" t="n">
-        <v>97.18349706799866</v>
+        <v>97.18349706799864</v>
       </c>
       <c r="F43" t="n">
-        <v>96.17058244436073</v>
+        <v>96.17058244436072</v>
       </c>
       <c r="G43" t="n">
         <v>118.7405137798882</v>
       </c>
       <c r="H43" t="n">
-        <v>112.9767069288691</v>
+        <v>112.976706928869</v>
       </c>
       <c r="I43" t="n">
-        <v>3.562500983483673</v>
+        <v>106.2000093486878</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>44.10871453810226</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>36.91157767312387</v>
       </c>
       <c r="R43" t="n">
-        <v>81.74852296862946</v>
+        <v>128.042925798599</v>
       </c>
       <c r="S43" t="n">
-        <v>72.12862409319763</v>
+        <v>72.1286240931976</v>
       </c>
       <c r="T43" t="n">
-        <v>76.05761548450687</v>
+        <v>76.05761548450684</v>
       </c>
       <c r="U43" t="n">
         <v>237.0685637779204</v>
@@ -25854,7 +25854,7 @@
         <v>176.4591898104666</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.3341877735243</v>
+        <v>78.93107040545245</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>243.0802587168384</v>
+        <v>333.48337608491</v>
       </c>
       <c r="C44" t="n">
         <v>316.022426192437</v>
       </c>
       <c r="D44" t="n">
-        <v>305.4325760421125</v>
+        <v>305.4325760421124</v>
       </c>
       <c r="E44" t="n">
         <v>332.6799044936913</v>
       </c>
       <c r="F44" t="n">
-        <v>357.625580163141</v>
+        <v>254.9880717979368</v>
       </c>
       <c r="G44" t="n">
-        <v>366.0522719365646</v>
+        <v>366.0522719365645</v>
       </c>
       <c r="H44" t="n">
-        <v>290.2243365371967</v>
+        <v>290.2243365371966</v>
       </c>
       <c r="I44" t="n">
         <v>161.2254239918354</v>
@@ -25918,22 +25918,22 @@
         <v>159.7696040076748</v>
       </c>
       <c r="T44" t="n">
-        <v>173.8453839855609</v>
+        <v>71.2078756203567</v>
       </c>
       <c r="U44" t="n">
-        <v>99.4576789640619</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V44" t="n">
         <v>278.5017928915644</v>
       </c>
       <c r="W44" t="n">
-        <v>197.3529947736384</v>
+        <v>209.5873857707707</v>
       </c>
       <c r="X44" t="n">
-        <v>320.4806350998986</v>
+        <v>320.4806350998985</v>
       </c>
       <c r="Y44" t="n">
-        <v>234.349964712279</v>
+        <v>234.3499647122789</v>
       </c>
     </row>
     <row r="45">
@@ -25949,22 +25949,22 @@
         <v>123.4580334097452</v>
       </c>
       <c r="D45" t="n">
-        <v>98.19459998606825</v>
+        <v>98.19459998606823</v>
       </c>
       <c r="E45" t="n">
         <v>108.3946148768304</v>
       </c>
       <c r="F45" t="n">
-        <v>95.81874681481338</v>
+        <v>95.81874681481335</v>
       </c>
       <c r="G45" t="n">
-        <v>88.09305158464014</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>62.98497865792596</v>
+        <v>49.09094035620731</v>
       </c>
       <c r="I45" t="n">
-        <v>40.14616727284458</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.90736857407263</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>32.02958815719555</v>
+        <v>19.79519716006317</v>
       </c>
       <c r="T45" t="n">
-        <v>48.27675475104701</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U45" t="n">
-        <v>74.05340813720022</v>
+        <v>176.6909165024043</v>
       </c>
       <c r="V45" t="n">
-        <v>183.5501215708548</v>
+        <v>183.5501215708547</v>
       </c>
       <c r="W45" t="n">
-        <v>99.80700921714501</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X45" t="n">
-        <v>156.522519624907</v>
+        <v>53.88501125970282</v>
       </c>
       <c r="Y45" t="n">
-        <v>156.4322301987339</v>
+        <v>156.4322301987338</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.9440062381627</v>
+        <v>130.5815146033668</v>
       </c>
       <c r="C46" t="n">
-        <v>15.35884715485324</v>
+        <v>117.9963555200573</v>
       </c>
       <c r="D46" t="n">
-        <v>53.07060460967241</v>
+        <v>99.36500743964183</v>
       </c>
       <c r="E46" t="n">
-        <v>97.18349706799867</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>96.17058244436075</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>118.7405137798883</v>
+        <v>16.41645919376757</v>
       </c>
       <c r="H46" t="n">
-        <v>112.9767069288691</v>
+        <v>10.33919856366492</v>
       </c>
       <c r="I46" t="n">
         <v>106.2000093486878</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>44.10871453810226</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.91157767312389</v>
+        <v>36.91157767312387</v>
       </c>
       <c r="R46" t="n">
         <v>128.042925798599</v>
       </c>
       <c r="S46" t="n">
-        <v>174.7661324584018</v>
+        <v>174.7661324584017</v>
       </c>
       <c r="T46" t="n">
         <v>178.695123849711</v>
@@ -26088,10 +26088,10 @@
         <v>237.2725327580205</v>
       </c>
       <c r="X46" t="n">
-        <v>176.4591898104667</v>
+        <v>176.4591898104666</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.69667940832019</v>
+        <v>169.3341877735243</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>439145.9404999666</v>
+        <v>439145.9404999667</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>439145.9404999666</v>
+        <v>439145.9404999667</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>509315.5726789369</v>
+        <v>509315.572678937</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>431776.1484419997</v>
+        <v>431776.1484419998</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>513007.3333737724</v>
+        <v>513007.3333737725</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>513007.3333737724</v>
+        <v>513007.3333737726</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>431776.1484419996</v>
+        <v>431776.1484419997</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>798794.4302491125</v>
+      </c>
+      <c r="C2" t="n">
         <v>798794.4302491123</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>798794.4302491124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>798794.430249112</v>
       </c>
       <c r="E2" t="n">
         <v>412232.908540766</v>
       </c>
       <c r="F2" t="n">
-        <v>412232.908540766</v>
+        <v>412232.9085407657</v>
       </c>
       <c r="G2" t="n">
-        <v>423985.2356309224</v>
+        <v>423985.2356309233</v>
       </c>
       <c r="H2" t="n">
-        <v>423985.2356309223</v>
+        <v>423985.2356309233</v>
       </c>
       <c r="I2" t="n">
-        <v>480685.4673356276</v>
+        <v>480685.4673356286</v>
       </c>
       <c r="J2" t="n">
-        <v>383135.8691020624</v>
+        <v>383135.8691020623</v>
       </c>
       <c r="K2" t="n">
         <v>383135.8691020624</v>
       </c>
       <c r="L2" t="n">
-        <v>485329.9404678401</v>
+        <v>485329.9404678404</v>
       </c>
       <c r="M2" t="n">
         <v>485329.9404678401</v>
       </c>
       <c r="N2" t="n">
-        <v>485329.9404678401</v>
+        <v>485329.94046784</v>
       </c>
       <c r="O2" t="n">
-        <v>383135.8691020624</v>
+        <v>383135.8691020623</v>
       </c>
       <c r="P2" t="n">
         <v>383135.8691020624</v>
@@ -26377,25 +26377,25 @@
         <v>68929.6346013555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4113.400832374589</v>
+        <v>4113.400832374635</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27293.46886198343</v>
+        <v>27293.46886198345</v>
       </c>
       <c r="J3" t="n">
         <v>35286.97163048181</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39400.3724628564</v>
+        <v>39400.37246285643</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>220730.6825568449</v>
       </c>
       <c r="G4" t="n">
-        <v>227610.5198536342</v>
+        <v>227610.5198536343</v>
       </c>
       <c r="H4" t="n">
-        <v>227610.5198536342</v>
+        <v>227610.5198536343</v>
       </c>
       <c r="I4" t="n">
-        <v>256505.3216889294</v>
+        <v>256505.3216889295</v>
       </c>
       <c r="J4" t="n">
         <v>199399.5792205975</v>
@@ -26450,7 +26450,7 @@
         <v>259224.2061476247</v>
       </c>
       <c r="M4" t="n">
-        <v>259224.2061476247</v>
+        <v>259224.2061476248</v>
       </c>
       <c r="N4" t="n">
         <v>259224.2061476247</v>
@@ -26484,34 +26484,34 @@
         <v>7243.556814126696</v>
       </c>
       <c r="G5" t="n">
-        <v>7675.81868234782</v>
+        <v>7675.818682347825</v>
       </c>
       <c r="H5" t="n">
-        <v>7675.81868234782</v>
+        <v>7675.818682347825</v>
       </c>
       <c r="I5" t="n">
-        <v>13916.17919095223</v>
+        <v>13916.17919095224</v>
       </c>
       <c r="J5" t="n">
-        <v>10380.79789932925</v>
+        <v>10380.79789932926</v>
       </c>
       <c r="K5" t="n">
-        <v>10380.79789932925</v>
+        <v>10380.79789932926</v>
       </c>
       <c r="L5" t="n">
-        <v>14088.97342183297</v>
+        <v>14088.97342183298</v>
       </c>
       <c r="M5" t="n">
-        <v>14088.97342183297</v>
+        <v>14088.97342183298</v>
       </c>
       <c r="N5" t="n">
-        <v>14088.97342183297</v>
+        <v>14088.97342183298</v>
       </c>
       <c r="O5" t="n">
-        <v>10380.79789932925</v>
+        <v>10380.79789932926</v>
       </c>
       <c r="P5" t="n">
-        <v>10380.79789932925</v>
+        <v>10380.79789932926</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318142.2099767195</v>
+        <v>318098.0741980386</v>
       </c>
       <c r="C6" t="n">
-        <v>318142.2099767196</v>
+        <v>318098.0741980383</v>
       </c>
       <c r="D6" t="n">
-        <v>318142.2099767191</v>
+        <v>318098.0741980384</v>
       </c>
       <c r="E6" t="n">
-        <v>115329.034568439</v>
+        <v>105373.0648998001</v>
       </c>
       <c r="F6" t="n">
-        <v>184258.6691697944</v>
+        <v>174302.6995011554</v>
       </c>
       <c r="G6" t="n">
-        <v>184585.4962625657</v>
+        <v>174930.8683141882</v>
       </c>
       <c r="H6" t="n">
-        <v>188698.8970949402</v>
+        <v>179044.2691465628</v>
       </c>
       <c r="I6" t="n">
-        <v>182970.4975937626</v>
+        <v>174769.7217403777</v>
       </c>
       <c r="J6" t="n">
-        <v>138068.5203516539</v>
+        <v>127366.4727486893</v>
       </c>
       <c r="K6" t="n">
-        <v>173355.4919821357</v>
+        <v>162653.4443791712</v>
       </c>
       <c r="L6" t="n">
-        <v>172616.3884355259</v>
+        <v>164534.7016368126</v>
       </c>
       <c r="M6" t="n">
-        <v>212016.7608983824</v>
+        <v>203935.0740996686</v>
       </c>
       <c r="N6" t="n">
-        <v>212016.7608983824</v>
+        <v>203935.0740996686</v>
       </c>
       <c r="O6" t="n">
-        <v>173355.4919821356</v>
+        <v>162653.4443791711</v>
       </c>
       <c r="P6" t="n">
-        <v>173355.4919821357</v>
+        <v>162653.4443791711</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="G2" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H2" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I2" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="K2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="L2" t="n">
         <v>93.35918011667277</v>
@@ -26724,10 +26724,10 @@
         <v>93.35918011667277</v>
       </c>
       <c r="O2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="P2" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="3">
@@ -26919,10 +26919,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.141751040468236</v>
+        <v>5.141751040468293</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26934,10 +26934,10 @@
         <v>44.10871453810226</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857054</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27156,10 +27156,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.141751040468236</v>
+        <v>5.141751040468293</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>44.10871453810226</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="18">
@@ -28642,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="19">
@@ -28721,31 +28721,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28769,28 +28769,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="21">
@@ -28879,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="22">
@@ -28958,31 +28958,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -29006,28 +29006,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29085,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="24">
@@ -29116,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="K25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>29.70107339546503</v>
       </c>
       <c r="M25" t="n">
-        <v>63.05363140336351</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>44.69982244326597</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>78.05238045116445</v>
       </c>
       <c r="P25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="R25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.30379429216262</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="K28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="L28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="M28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="N28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="O28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="P28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="R28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="C29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="D29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="E29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="F29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="G29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="H29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="I29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29559,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="S29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="T29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="U29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="V29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="W29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="X29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="Y29" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="C30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="D30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="E30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="F30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="G30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="H30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="I30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="S30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="T30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="U30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="V30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="W30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="X30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="C31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="D31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="E31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="F31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="G31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="H31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="I31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="J31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="K31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="L31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="M31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="N31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="O31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="P31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="R31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="S31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="T31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="U31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="V31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="W31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="X31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857053</v>
       </c>
     </row>
     <row r="32">
@@ -29936,16 +29936,16 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L34" t="n">
-        <v>38.53366496973563</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>63.05363140336351</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>58.50533598597553</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>43.08196038712373</v>
       </c>
       <c r="P34" t="n">
         <v>93.35918011667277</v>
@@ -30173,16 +30173,16 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>75.04748310488799</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>58.50533598597551</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>43.08196038712367</v>
+        <v>26.53981326821127</v>
       </c>
       <c r="P37" t="n">
         <v>93.35918011667277</v>
@@ -30410,16 +30410,16 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>75.04748310488799</v>
       </c>
       <c r="M40" t="n">
-        <v>23.53491592193475</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>78.05238045116442</v>
+        <v>26.53981326821127</v>
       </c>
       <c r="P40" t="n">
         <v>93.35918011667277</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="K43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="L43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="M43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="N43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="O43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="P43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="R43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y44" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="K46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="L46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="M46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="N46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="O46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="P46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="R46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
   </sheetData>
@@ -36363,16 +36363,16 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L23" t="n">
-        <v>98.49053833024638</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>98.49053833024637</v>
+      </c>
+      <c r="O23" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="N23" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N24" t="n">
-        <v>98.49053833024637</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O24" t="n">
+        <v>28.39502468041881</v>
+      </c>
+      <c r="P24" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>69.03430246627977</v>
+        <v>69.03430246627983</v>
       </c>
       <c r="L25" t="n">
-        <v>27.59002526031614</v>
+        <v>57.29109865578117</v>
       </c>
       <c r="M25" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N25" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="O25" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N25" t="n">
-        <v>88.83199482249456</v>
-      </c>
-      <c r="O25" t="n">
-        <v>24.58512791403967</v>
-      </c>
       <c r="P25" t="n">
-        <v>88.58235355705611</v>
+        <v>88.58235355705617</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.141751040468236</v>
+        <v>5.141751040468293</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,16 +36603,16 @@
         <v>102.6375083652041</v>
       </c>
       <c r="M26" t="n">
+        <v>7.924825914033268</v>
+      </c>
+      <c r="N26" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="N26" t="n">
-        <v>98.49053833024637</v>
       </c>
       <c r="O26" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>102.6375083652041</v>
       </c>
       <c r="N27" t="n">
-        <v>28.39502468041882</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O27" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="P27" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024639</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268767</v>
       </c>
       <c r="L28" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888667</v>
       </c>
       <c r="M28" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041111</v>
       </c>
       <c r="N28" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779912</v>
       </c>
       <c r="O28" t="n">
-        <v>73.83559349261019</v>
+        <v>73.8355934926102</v>
       </c>
       <c r="P28" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346401</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>102.6375083652041</v>
@@ -36843,10 +36843,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="N29" t="n">
-        <v>98.49053833024634</v>
+        <v>98.49053833024637</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L30" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M30" t="n">
+        <v>28.39502468041881</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N30" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="O30" t="n">
-        <v>98.49053833024634</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268767</v>
       </c>
       <c r="L31" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888667</v>
       </c>
       <c r="M31" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041111</v>
       </c>
       <c r="N31" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779912</v>
       </c>
       <c r="O31" t="n">
-        <v>73.83559349261019</v>
+        <v>73.8355934926102</v>
       </c>
       <c r="P31" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346401</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>102.6375083652041</v>
+        <v>7.92482591403327</v>
       </c>
       <c r="M32" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N32" t="n">
-        <v>98.49053833024634</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>28.39502468041882</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>28.39502468041879</v>
+      </c>
+      <c r="N33" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>102.6375083652041</v>
@@ -37232,16 +37232,16 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L34" t="n">
-        <v>66.12369023005176</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N34" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N34" t="n">
-        <v>44.13217237922859</v>
-      </c>
       <c r="O34" t="n">
-        <v>24.58512791403967</v>
+        <v>67.6670883011634</v>
       </c>
       <c r="P34" t="n">
         <v>90.63773938156626</v>
@@ -37317,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>7.924825914033268</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O35" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024639</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>98.49053833024638</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O36" t="n">
+        <v>28.39502468041881</v>
+      </c>
+      <c r="P36" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L37" t="n">
-        <v>27.59002526031614</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M37" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N37" t="n">
-        <v>102.6375083652041</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O37" t="n">
-        <v>67.66708830116335</v>
+        <v>51.12494118225094</v>
       </c>
       <c r="P37" t="n">
         <v>90.63773938156626</v>
@@ -37551,16 +37551,16 @@
         <v>102.6375083652041</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.924825914033268</v>
+      </c>
+      <c r="O38" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N38" t="n">
-        <v>98.49053833024634</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>28.39502468041882</v>
+        <v>98.49053833024637</v>
       </c>
       <c r="O39" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="P39" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L40" t="n">
-        <v>27.59002526031614</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M40" t="n">
-        <v>63.11879288377533</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N40" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O40" t="n">
-        <v>102.6375083652041</v>
+        <v>51.12494118225094</v>
       </c>
       <c r="P40" t="n">
         <v>90.63773938156626</v>
@@ -37782,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>7.924825914033272</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>7.92482591403327</v>
       </c>
       <c r="M41" t="n">
         <v>102.6375083652041</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L42" t="n">
-        <v>28.39502468041882</v>
+        <v>98.49053833024635</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N42" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="O42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268767</v>
       </c>
       <c r="L43" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888667</v>
       </c>
       <c r="M43" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041111</v>
       </c>
       <c r="N43" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779912</v>
       </c>
       <c r="O43" t="n">
-        <v>73.83559349261019</v>
+        <v>73.8355934926102</v>
       </c>
       <c r="P43" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346401</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>7.924825914033272</v>
+        <v>7.92482591403327</v>
       </c>
       <c r="M44" t="n">
         <v>102.6375083652041</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39502468041882</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M45" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>98.49053833024639</v>
       </c>
       <c r="O45" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>26.98097375268765</v>
+        <v>26.98097375268767</v>
       </c>
       <c r="L46" t="n">
-        <v>76.84049083888664</v>
+        <v>76.84049083888667</v>
       </c>
       <c r="M46" t="n">
-        <v>88.83434254041109</v>
+        <v>88.83434254041111</v>
       </c>
       <c r="N46" t="n">
-        <v>93.38263795779909</v>
+        <v>93.38263795779912</v>
       </c>
       <c r="O46" t="n">
-        <v>73.83559349261017</v>
+        <v>73.8355934926102</v>
       </c>
       <c r="P46" t="n">
-        <v>46.52902484346399</v>
+        <v>46.52902484346401</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
